--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/VERMONT_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/VERMONT_2021.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -387,7 +387,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C2">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C7">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -548,7 +548,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -579,7 +579,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C16">
@@ -592,7 +592,7 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C17">
@@ -693,7 +693,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C24">
@@ -724,7 +724,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C26">
@@ -737,7 +737,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C27">
@@ -776,7 +776,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C30">
@@ -1134,7 +1134,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C56">
@@ -1194,41 +1194,6 @@
       </c>
       <c r="D60">
         <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 701,861</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Mayo de 2022</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/VERMONT_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/VERMONT_2021.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Pijijiapan</t>
@@ -450,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>San Cristóbal De Las Casas</t>
@@ -463,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -476,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Tecpatán</t>
@@ -489,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -520,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -533,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Cuautitlán</t>
@@ -577,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Naucalpan De Juárez</t>
@@ -590,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -603,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Cocula</t>
@@ -647,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Malinaltepec</t>
@@ -660,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Petatlán</t>
@@ -673,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Total</t>
@@ -704,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Total</t>
@@ -735,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Miahuatlán De Porfirio Díaz</t>
@@ -748,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>San Antonino Monte Verde</t>
@@ -761,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>San Francisco Logueche</t>
@@ -774,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>San Pedro Y San Pablo Teposcolula</t>
@@ -787,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Santa María Huazolotitlán</t>
@@ -800,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Total</t>
@@ -831,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Hueytamalco</t>
@@ -844,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Jolalpan</t>
@@ -857,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Pantepec</t>
@@ -870,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -883,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>San Gabriel Chilac</t>
@@ -896,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -909,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Xiutetelco</t>
@@ -922,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Total</t>
@@ -953,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Total</t>
@@ -984,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Cárdenas</t>
@@ -997,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Comalcalco</t>
@@ -1010,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -1023,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -1036,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Paraíso</t>
@@ -1049,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1080,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Altotonga</t>
@@ -1093,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Atzalan</t>
@@ -1106,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Isla</t>
@@ -1119,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>José Azueta</t>
@@ -1132,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -1145,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Misantla</t>
@@ -1158,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -1171,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Total</t>
